--- a/Golden R01 Behavior Master Key.xlsx
+++ b/Golden R01 Behavior Master Key.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schle\Documents\Golden Local\Import Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd Appleby\Documents\Fent\CoffeyBehavior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0F38CE-F52C-4206-B3FE-C0B63ECFBAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0941EA-5B03-49CB-896D-B9C4ACAAEAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="75">
   <si>
     <t>TagNumber</t>
   </si>
@@ -236,16 +236,31 @@
     <t>RemoveSession</t>
   </si>
   <si>
+    <t>{}</t>
+  </si>
+  <si>
     <t>IncludeBehavior</t>
   </si>
   <si>
-    <t>[17 22]</t>
-  </si>
-  <si>
-    <t>[17]</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>{17, 22}</t>
+  </si>
+  <si>
+    <t>{17}</t>
+  </si>
+  <si>
+    <t>BrainStatus</t>
+  </si>
+  <si>
+    <t>BrainStorage</t>
+  </si>
+  <si>
+    <t>{6}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>{6, 7}</t>
   </si>
 </sst>
 </file>
@@ -339,12 +354,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53C3D0ED-7493-433A-A73D-0447F5E34631}" name="Table1" displayName="Table1" ref="A1:V89" totalsRowShown="0">
-  <autoFilter ref="A1:V89" xr:uid="{53C3D0ED-7493-433A-A73D-0447F5E34631}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53C3D0ED-7493-433A-A73D-0447F5E34631}" name="Table1" displayName="Table1" ref="A1:X105" totalsRowShown="0">
+  <autoFilter ref="A1:X105" xr:uid="{53C3D0ED-7493-433A-A73D-0447F5E34631}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X36">
     <sortCondition descending="1" ref="J1:J49"/>
   </sortState>
-  <tableColumns count="22">
+  <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{60D7D7A6-CBAB-41C3-A922-12D9BB352B61}" name="TagNumber"/>
     <tableColumn id="34" xr3:uid="{E413E665-5CAE-487D-8460-2E0C1B0EF263}" name="ID"/>
     <tableColumn id="11" xr3:uid="{F2B52AD2-4D99-4940-BBE4-07E51D06A6BE}" name="Run"/>
@@ -364,6 +379,8 @@
     <tableColumn id="13" xr3:uid="{0C5CD5DA-496B-4BB0-85F5-2EAD47B31D3D}" name="RemoveSession"/>
     <tableColumn id="9" xr3:uid="{0AA21CAF-BFB7-48BC-A87D-04CC8E1A5C39}" name="BloodSampling"/>
     <tableColumn id="10" xr3:uid="{9DFBF68F-F1D2-4007-88AF-BAC402EEBE0F}" name="SacrificeTimepoint"/>
+    <tableColumn id="16" xr3:uid="{AA20D019-839B-47C6-BDD1-FF44161ED6F5}" name="BrainStatus"/>
+    <tableColumn id="15" xr3:uid="{D91B5DF9-4C2E-4827-AF17-5EA8BE251B14}" name="BrainStorage"/>
     <tableColumn id="23" xr3:uid="{81417620-4FAF-4E71-A587-A6BA0FA43834}" name="SacrificeStartTime"/>
     <tableColumn id="24" xr3:uid="{00898063-6555-4F81-BCF1-9F7809DD7B5B}" name="PerfusionTime"/>
     <tableColumn id="25" xr3:uid="{4BF37A7C-156D-4A60-89CE-BDE0D4E7EFDE}" name="Notes"/>
@@ -635,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="C71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q102" sqref="Q102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,17 +674,19 @@
     <col min="12" max="12" width="12.140625" customWidth="1"/>
     <col min="13" max="13" width="16.42578125" customWidth="1"/>
     <col min="14" max="15" width="22.28515625" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="12" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -714,7 +733,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q1" t="s">
         <v>65</v>
@@ -726,16 +745,22 @@
         <v>16</v>
       </c>
       <c r="T1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -782,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R2" t="b">
         <v>0</v>
@@ -790,17 +815,17 @@
       <c r="S2" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="2">
+      <c r="V2" s="2">
         <v>0.38541666666666669</v>
       </c>
-      <c r="U2" s="2">
+      <c r="W2" s="2">
         <v>0.44791666666666669</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -847,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R3" t="b">
         <v>0</v>
@@ -855,17 +880,17 @@
       <c r="S3" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="2">
+      <c r="V3" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="U3" s="2">
+      <c r="W3" s="2">
         <v>0.45833333333333331</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -912,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R4" t="b">
         <v>0</v>
@@ -920,17 +945,17 @@
       <c r="S4" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="2">
+      <c r="V4" s="2">
         <v>0.40625</v>
       </c>
-      <c r="U4" s="2">
+      <c r="W4" s="2">
         <v>0.46875</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -977,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R5" t="b">
         <v>0</v>
@@ -985,17 +1010,17 @@
       <c r="S5" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="2">
+      <c r="V5" s="2">
         <v>0.41666666666666702</v>
       </c>
-      <c r="U5" s="2">
+      <c r="W5" s="2">
         <v>0.47916666666666702</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1042,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R6" t="b">
         <v>0</v>
@@ -1050,17 +1075,17 @@
       <c r="S6" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="2">
+      <c r="V6" s="2">
         <v>0.42708333333333298</v>
       </c>
-      <c r="U6" s="2">
+      <c r="W6" s="2">
         <v>0.48958333333333298</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1107,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R7" t="b">
         <v>0</v>
@@ -1115,17 +1140,17 @@
       <c r="S7" t="s">
         <v>27</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>0.4375</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>0.5</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -1172,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R8" t="b">
         <v>0</v>
@@ -1180,17 +1205,17 @@
       <c r="S8" t="s">
         <v>27</v>
       </c>
-      <c r="T8" s="2">
+      <c r="V8" s="2">
         <v>0.44791666666666602</v>
       </c>
-      <c r="U8" s="2">
+      <c r="W8" s="2">
         <v>0.51041666666666696</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1237,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R9" t="b">
         <v>0</v>
@@ -1245,17 +1270,17 @@
       <c r="S9" t="s">
         <v>27</v>
       </c>
-      <c r="T9" s="2">
+      <c r="V9" s="2">
         <v>0.45833333333333298</v>
       </c>
-      <c r="U9" s="2">
+      <c r="W9" s="2">
         <v>0.52083333333333304</v>
       </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1302,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R10" t="b">
         <v>0</v>
@@ -1310,17 +1335,17 @@
       <c r="S10" t="s">
         <v>27</v>
       </c>
-      <c r="T10" s="2">
+      <c r="V10" s="2">
         <v>0.53125</v>
       </c>
-      <c r="U10" s="2">
+      <c r="W10" s="2">
         <v>0.59375</v>
       </c>
-      <c r="V10" t="s">
+      <c r="X10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1367,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R11" t="b">
         <v>0</v>
@@ -1375,17 +1400,17 @@
       <c r="S11" t="s">
         <v>27</v>
       </c>
-      <c r="T11" s="2">
+      <c r="V11" s="2">
         <v>0.54166666666666696</v>
       </c>
-      <c r="U11" s="2">
+      <c r="W11" s="2">
         <v>0.60416666666666696</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1432,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R12" t="b">
         <v>0</v>
@@ -1440,17 +1465,17 @@
       <c r="S12" t="s">
         <v>27</v>
       </c>
-      <c r="T12" s="2">
+      <c r="V12" s="2">
         <v>0.55208333333333304</v>
       </c>
-      <c r="U12" s="2">
+      <c r="W12" s="2">
         <v>0.61458333333333304</v>
       </c>
-      <c r="V12" t="s">
+      <c r="X12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1497,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R13" t="b">
         <v>0</v>
@@ -1505,17 +1530,17 @@
       <c r="S13" t="s">
         <v>27</v>
       </c>
-      <c r="T13" s="2">
+      <c r="V13" s="2">
         <v>0.5625</v>
       </c>
-      <c r="U13" s="2">
+      <c r="W13" s="2">
         <v>0.625</v>
       </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1562,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
@@ -1570,17 +1595,17 @@
       <c r="S14" t="s">
         <v>27</v>
       </c>
-      <c r="T14" s="2">
+      <c r="V14" s="2">
         <v>0.57291666666666696</v>
       </c>
-      <c r="U14" s="2">
+      <c r="W14" s="2">
         <v>0.63541666666666696</v>
       </c>
-      <c r="V14" t="s">
+      <c r="X14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -1627,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R15" t="b">
         <v>0</v>
@@ -1635,17 +1660,17 @@
       <c r="S15" t="s">
         <v>27</v>
       </c>
-      <c r="T15" s="2">
+      <c r="V15" s="2">
         <v>0.58333333333333304</v>
       </c>
-      <c r="U15" s="2">
+      <c r="W15" s="2">
         <v>0.64583333333333304</v>
       </c>
-      <c r="V15" t="s">
+      <c r="X15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -1692,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R16" t="b">
         <v>0</v>
@@ -1700,17 +1725,17 @@
       <c r="S16" t="s">
         <v>27</v>
       </c>
-      <c r="T16" s="2">
+      <c r="V16" s="2">
         <v>0.59375</v>
       </c>
-      <c r="U16" s="2">
+      <c r="W16" s="2">
         <v>0.65625</v>
       </c>
-      <c r="V16" t="s">
+      <c r="X16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -1757,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R17" t="b">
         <v>0</v>
@@ -1765,17 +1790,17 @@
       <c r="S17" t="s">
         <v>27</v>
       </c>
-      <c r="T17" s="2">
+      <c r="V17" s="2">
         <v>0.60416666666666696</v>
       </c>
-      <c r="U17" s="2">
+      <c r="W17" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="V17" t="s">
+      <c r="X17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>651</v>
       </c>
@@ -1822,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="Q18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R18" t="b">
         <v>1</v>
@@ -1830,17 +1855,17 @@
       <c r="S18" t="s">
         <v>56</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="V18" t="s">
+      <c r="X18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>652</v>
       </c>
@@ -1887,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="Q19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R19" t="b">
         <v>1</v>
@@ -1895,17 +1920,17 @@
       <c r="S19" t="s">
         <v>56</v>
       </c>
-      <c r="T19" s="4">
+      <c r="V19" s="4">
         <v>0.40625</v>
       </c>
-      <c r="U19" s="4">
+      <c r="W19" s="4">
         <v>0.46875</v>
       </c>
-      <c r="V19" t="s">
+      <c r="X19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>655</v>
       </c>
@@ -1952,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="Q20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R20" t="b">
         <v>1</v>
@@ -1960,17 +1985,17 @@
       <c r="S20" t="s">
         <v>56</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="V20" t="s">
+      <c r="X20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>656</v>
       </c>
@@ -2017,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="Q21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R21" t="b">
         <v>1</v>
@@ -2025,17 +2050,17 @@
       <c r="S21" t="s">
         <v>56</v>
       </c>
-      <c r="T21" s="4">
+      <c r="V21" s="4">
         <v>0.42708333333333298</v>
       </c>
-      <c r="U21" s="4">
+      <c r="W21" s="4">
         <v>0.48958333333333298</v>
       </c>
-      <c r="V21" t="s">
+      <c r="X21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>659</v>
       </c>
@@ -2082,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="Q22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R22" t="b">
         <v>1</v>
@@ -2090,17 +2115,17 @@
       <c r="S22" t="s">
         <v>56</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>0.4375</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>0.5</v>
       </c>
-      <c r="V22" t="s">
+      <c r="X22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>660</v>
       </c>
@@ -2147,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="Q23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R23" t="b">
         <v>1</v>
@@ -2155,17 +2180,17 @@
       <c r="S23" t="s">
         <v>56</v>
       </c>
-      <c r="T23" s="4">
+      <c r="V23" s="4">
         <v>0.44791666666666602</v>
       </c>
-      <c r="U23" s="4">
+      <c r="W23" s="4">
         <v>0.51041666666666696</v>
       </c>
-      <c r="V23" t="s">
+      <c r="X23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>663</v>
       </c>
@@ -2212,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R24" t="b">
         <v>1</v>
@@ -2220,17 +2245,17 @@
       <c r="S24" t="s">
         <v>56</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>0.45833333333333298</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>0.52083333333333304</v>
       </c>
-      <c r="V24" t="s">
+      <c r="X24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>664</v>
       </c>
@@ -2277,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R25" t="b">
         <v>1</v>
@@ -2285,17 +2310,17 @@
       <c r="S25" t="s">
         <v>56</v>
       </c>
-      <c r="T25" s="4">
+      <c r="V25" s="4">
         <v>0.46875</v>
       </c>
-      <c r="U25" s="3">
+      <c r="W25" s="3">
         <v>0.53125</v>
       </c>
-      <c r="V25" t="s">
+      <c r="X25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>653</v>
       </c>
@@ -2342,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="Q26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R26" t="b">
         <v>1</v>
@@ -2350,17 +2375,17 @@
       <c r="S26" t="s">
         <v>56</v>
       </c>
-      <c r="T26" s="4">
+      <c r="V26" s="4">
         <v>0.53125</v>
       </c>
-      <c r="U26" s="4">
+      <c r="W26" s="4">
         <v>0.59375</v>
       </c>
-      <c r="V26" t="s">
+      <c r="X26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>654</v>
       </c>
@@ -2407,7 +2432,7 @@
         <v>1</v>
       </c>
       <c r="Q27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R27" t="b">
         <v>1</v>
@@ -2415,17 +2440,17 @@
       <c r="S27" t="s">
         <v>56</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>0.54166666666666696</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="V27" t="s">
+      <c r="X27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>657</v>
       </c>
@@ -2472,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="Q28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R28" t="b">
         <v>1</v>
@@ -2480,17 +2505,17 @@
       <c r="S28" t="s">
         <v>56</v>
       </c>
-      <c r="T28" s="4">
+      <c r="V28" s="4">
         <v>0.55208333333333304</v>
       </c>
-      <c r="U28" s="4">
+      <c r="W28" s="4">
         <v>0.61458333333333304</v>
       </c>
-      <c r="V28" t="s">
+      <c r="X28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>658</v>
       </c>
@@ -2537,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="Q29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R29" t="b">
         <v>1</v>
@@ -2545,17 +2570,17 @@
       <c r="S29" t="s">
         <v>56</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>0.5625</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>0.625</v>
       </c>
-      <c r="V29" t="s">
+      <c r="X29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>661</v>
       </c>
@@ -2602,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="Q30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R30" t="b">
         <v>1</v>
@@ -2610,17 +2635,17 @@
       <c r="S30" t="s">
         <v>56</v>
       </c>
-      <c r="T30" s="4">
+      <c r="V30" s="4">
         <v>0.57291666666666696</v>
       </c>
-      <c r="U30" s="4">
+      <c r="W30" s="4">
         <v>0.63541666666666696</v>
       </c>
-      <c r="V30" t="s">
+      <c r="X30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>662</v>
       </c>
@@ -2667,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="Q31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R31" t="b">
         <v>1</v>
@@ -2675,17 +2700,17 @@
       <c r="S31" t="s">
         <v>56</v>
       </c>
-      <c r="T31" s="3">
+      <c r="V31" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="U31" s="3">
+      <c r="W31" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="V31" t="s">
+      <c r="X31" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>665</v>
       </c>
@@ -2732,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="Q32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R32" t="b">
         <v>1</v>
@@ -2740,17 +2765,17 @@
       <c r="S32" t="s">
         <v>56</v>
       </c>
-      <c r="T32" s="4">
+      <c r="V32" s="4">
         <v>0.59375</v>
       </c>
-      <c r="U32" s="4">
+      <c r="W32" s="4">
         <v>0.65625</v>
       </c>
-      <c r="V32" t="s">
+      <c r="X32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>666</v>
       </c>
@@ -2797,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="Q33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R33" t="b">
         <v>1</v>
@@ -2805,17 +2830,17 @@
       <c r="S33" t="s">
         <v>56</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="V33" t="s">
+      <c r="X33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2862,13 +2887,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V34" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="W34" s="2">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -2915,13 +2946,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2968,13 +2999,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V36" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="W36" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -3021,13 +3058,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -3074,13 +3111,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V38" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="W38" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6</v>
       </c>
@@ -3127,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="Q39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>7</v>
       </c>
@@ -3180,13 +3223,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R40" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V40" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="W40" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8</v>
       </c>
@@ -3233,13 +3282,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9</v>
       </c>
@@ -3286,13 +3335,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V42" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="W42" s="2">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10</v>
       </c>
@@ -3339,13 +3394,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>11</v>
       </c>
@@ -3392,13 +3447,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V44" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="W44" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>12</v>
       </c>
@@ -3445,13 +3506,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>13</v>
       </c>
@@ -3498,13 +3559,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V46" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="W46" s="2">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>14</v>
       </c>
@@ -3551,13 +3618,13 @@
         <v>0</v>
       </c>
       <c r="Q47" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>15</v>
       </c>
@@ -3604,10 +3671,16 @@
         <v>0</v>
       </c>
       <c r="Q48" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R48" t="b">
         <v>0</v>
+      </c>
+      <c r="V48" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="W48" s="2">
+        <v>0.125</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
@@ -3657,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R49" t="b">
         <v>0</v>
@@ -3704,7 +3777,10 @@
         <v>0</v>
       </c>
       <c r="Q50" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="R50" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -3748,7 +3824,10 @@
         <v>0</v>
       </c>
       <c r="Q51" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="R51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -3792,7 +3871,10 @@
         <v>0</v>
       </c>
       <c r="Q52" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="R52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -3836,7 +3918,10 @@
         <v>0</v>
       </c>
       <c r="Q53" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="R53" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -3880,7 +3965,10 @@
         <v>0</v>
       </c>
       <c r="Q54" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="R54" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -3924,7 +4012,10 @@
         <v>0</v>
       </c>
       <c r="Q55" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="R55" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -3968,7 +4059,10 @@
         <v>0</v>
       </c>
       <c r="Q56" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="R56" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -4012,7 +4106,10 @@
         <v>0</v>
       </c>
       <c r="Q57" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="R57" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -4056,7 +4153,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="R58" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -4100,7 +4200,10 @@
         <v>0</v>
       </c>
       <c r="Q59" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="R59" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -4144,7 +4247,10 @@
         <v>0</v>
       </c>
       <c r="Q60" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="R60" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -4188,7 +4294,10 @@
         <v>0</v>
       </c>
       <c r="Q61" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="R61" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -4232,7 +4341,10 @@
         <v>0</v>
       </c>
       <c r="Q62" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="R62" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -4276,7 +4388,10 @@
         <v>0</v>
       </c>
       <c r="Q63" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="R63" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -4320,10 +4435,13 @@
         <v>0</v>
       </c>
       <c r="Q64" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="R64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>32</v>
       </c>
@@ -4364,10 +4482,13 @@
         <v>0</v>
       </c>
       <c r="Q65" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="R65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>33</v>
       </c>
@@ -4408,10 +4529,13 @@
         <v>0</v>
       </c>
       <c r="Q66" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="R66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>34</v>
       </c>
@@ -4452,10 +4576,13 @@
         <v>0</v>
       </c>
       <c r="Q67" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="R67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>35</v>
       </c>
@@ -4496,10 +4623,13 @@
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="R68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>36</v>
       </c>
@@ -4540,10 +4670,13 @@
         <v>0</v>
       </c>
       <c r="Q69" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="R69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>37</v>
       </c>
@@ -4584,10 +4717,13 @@
         <v>0</v>
       </c>
       <c r="Q70" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="R70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>38</v>
       </c>
@@ -4628,10 +4764,13 @@
         <v>0</v>
       </c>
       <c r="Q71" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="R71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>39</v>
       </c>
@@ -4672,10 +4811,13 @@
         <v>0</v>
       </c>
       <c r="Q72" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="R72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>40</v>
       </c>
@@ -4716,10 +4858,13 @@
         <v>0</v>
       </c>
       <c r="Q73" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="R73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>41</v>
       </c>
@@ -4760,10 +4905,13 @@
         <v>0</v>
       </c>
       <c r="Q74" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="R74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>42</v>
       </c>
@@ -4804,10 +4952,13 @@
         <v>0</v>
       </c>
       <c r="Q75" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="R75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>43</v>
       </c>
@@ -4848,10 +4999,13 @@
         <v>0</v>
       </c>
       <c r="Q76" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="R76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>44</v>
       </c>
@@ -4892,10 +5046,13 @@
         <v>0</v>
       </c>
       <c r="Q77" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="R77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>45</v>
       </c>
@@ -4936,10 +5093,13 @@
         <v>0</v>
       </c>
       <c r="Q78" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="R78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>46</v>
       </c>
@@ -4980,10 +5140,13 @@
         <v>0</v>
       </c>
       <c r="Q79" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="R79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>47</v>
       </c>
@@ -5024,10 +5187,13 @@
         <v>0</v>
       </c>
       <c r="Q80" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="R80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>48</v>
       </c>
@@ -5068,10 +5234,13 @@
         <v>0</v>
       </c>
       <c r="Q81" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="R81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>49</v>
       </c>
@@ -5112,10 +5281,13 @@
         <v>0</v>
       </c>
       <c r="Q82" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="R82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>50</v>
       </c>
@@ -5156,10 +5328,13 @@
         <v>0</v>
       </c>
       <c r="Q83" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="R83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>51</v>
       </c>
@@ -5200,10 +5375,13 @@
         <v>0</v>
       </c>
       <c r="Q84" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="R84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>52</v>
       </c>
@@ -5244,10 +5422,13 @@
         <v>0</v>
       </c>
       <c r="Q85" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="R85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>53</v>
       </c>
@@ -5288,10 +5469,13 @@
         <v>0</v>
       </c>
       <c r="Q86" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="R86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>54</v>
       </c>
@@ -5332,10 +5516,13 @@
         <v>0</v>
       </c>
       <c r="Q87" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="R87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>55</v>
       </c>
@@ -5376,10 +5563,13 @@
         <v>0</v>
       </c>
       <c r="Q88" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="R88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>56</v>
       </c>
@@ -5420,7 +5610,699 @@
         <v>0</v>
       </c>
       <c r="Q89" t="s">
+        <v>69</v>
+      </c>
+      <c r="R89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>57</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="E90" s="1">
+        <v>45627</v>
+      </c>
+      <c r="F90" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90" t="s">
+        <v>24</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90" t="s">
+        <v>26</v>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="b">
+        <v>1</v>
+      </c>
+      <c r="M90" t="b">
+        <v>1</v>
+      </c>
+      <c r="N90" t="b">
+        <v>0</v>
+      </c>
+      <c r="O90" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>58</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="E91" s="1">
+        <v>45627</v>
+      </c>
+      <c r="F91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91" t="s">
+        <v>24</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91" t="s">
+        <v>26</v>
+      </c>
+      <c r="K91" t="b">
+        <v>1</v>
+      </c>
+      <c r="L91" t="b">
+        <v>1</v>
+      </c>
+      <c r="M91" t="b">
+        <v>1</v>
+      </c>
+      <c r="N91" t="b">
+        <v>0</v>
+      </c>
+      <c r="O91" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>59</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+      <c r="E92" s="1">
+        <v>45627</v>
+      </c>
+      <c r="F92" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" t="s">
+        <v>24</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92" t="s">
+        <v>26</v>
+      </c>
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" t="b">
+        <v>1</v>
+      </c>
+      <c r="M92" t="b">
+        <v>1</v>
+      </c>
+      <c r="N92" t="b">
+        <v>0</v>
+      </c>
+      <c r="O92" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>60</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+      <c r="E93" s="1">
+        <v>45627</v>
+      </c>
+      <c r="F93" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I93">
+        <v>4</v>
+      </c>
+      <c r="J93" t="s">
+        <v>26</v>
+      </c>
+      <c r="K93" t="b">
+        <v>1</v>
+      </c>
+      <c r="L93" t="b">
+        <v>1</v>
+      </c>
+      <c r="M93" t="b">
+        <v>1</v>
+      </c>
+      <c r="N93" t="b">
+        <v>0</v>
+      </c>
+      <c r="O93" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>61</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+      <c r="E94" s="1">
+        <v>45627</v>
+      </c>
+      <c r="F94" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94" t="s">
+        <v>24</v>
+      </c>
+      <c r="I94">
+        <v>5</v>
+      </c>
+      <c r="J94" t="s">
+        <v>26</v>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="b">
+        <v>1</v>
+      </c>
+      <c r="M94" t="b">
+        <v>1</v>
+      </c>
+      <c r="N94" t="b">
+        <v>0</v>
+      </c>
+      <c r="O94" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>62</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+      <c r="E95" s="1">
+        <v>45627</v>
+      </c>
+      <c r="F95" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" t="s">
+        <v>24</v>
+      </c>
+      <c r="I95">
+        <v>6</v>
+      </c>
+      <c r="J95" t="s">
+        <v>26</v>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="b">
+        <v>1</v>
+      </c>
+      <c r="M95" t="b">
+        <v>1</v>
+      </c>
+      <c r="N95" t="b">
+        <v>0</v>
+      </c>
+      <c r="O95" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>63</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="E96" s="1">
+        <v>45627</v>
+      </c>
+      <c r="F96" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" t="s">
+        <v>24</v>
+      </c>
+      <c r="I96">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>26</v>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" t="b">
+        <v>1</v>
+      </c>
+      <c r="M96" t="b">
+        <v>1</v>
+      </c>
+      <c r="N96" t="b">
+        <v>0</v>
+      </c>
+      <c r="O96" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>64</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="E97" s="1">
+        <v>45627</v>
+      </c>
+      <c r="F97" t="s">
+        <v>23</v>
+      </c>
+      <c r="G97" t="s">
+        <v>24</v>
+      </c>
+      <c r="I97">
+        <v>8</v>
+      </c>
+      <c r="J97" t="s">
+        <v>26</v>
+      </c>
+      <c r="K97" t="b">
+        <v>1</v>
+      </c>
+      <c r="L97" t="b">
+        <v>1</v>
+      </c>
+      <c r="M97" t="b">
+        <v>1</v>
+      </c>
+      <c r="N97" t="b">
+        <v>0</v>
+      </c>
+      <c r="O97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>65</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="E98" s="1">
+        <v>45627</v>
+      </c>
+      <c r="F98" t="s">
+        <v>23</v>
+      </c>
+      <c r="G98" t="s">
+        <v>24</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98" t="s">
+        <v>44</v>
+      </c>
+      <c r="K98" t="b">
+        <v>1</v>
+      </c>
+      <c r="L98" t="b">
+        <v>1</v>
+      </c>
+      <c r="M98" t="b">
+        <v>1</v>
+      </c>
+      <c r="N98" t="b">
+        <v>0</v>
+      </c>
+      <c r="O98" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>66</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+      <c r="E99" s="1">
+        <v>45627</v>
+      </c>
+      <c r="F99" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99" t="s">
+        <v>24</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99" t="s">
+        <v>44</v>
+      </c>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" t="b">
+        <v>1</v>
+      </c>
+      <c r="M99" t="b">
+        <v>1</v>
+      </c>
+      <c r="N99" t="b">
+        <v>0</v>
+      </c>
+      <c r="O99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>67</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+      <c r="E100" s="1">
+        <v>45627</v>
+      </c>
+      <c r="F100" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" t="s">
+        <v>24</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100" t="s">
+        <v>44</v>
+      </c>
+      <c r="K100" t="b">
+        <v>1</v>
+      </c>
+      <c r="L100" t="b">
+        <v>1</v>
+      </c>
+      <c r="M100" t="b">
+        <v>1</v>
+      </c>
+      <c r="N100" t="b">
+        <v>0</v>
+      </c>
+      <c r="O100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>68</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+      <c r="E101" s="1">
+        <v>45627</v>
+      </c>
+      <c r="F101" t="s">
+        <v>23</v>
+      </c>
+      <c r="G101" t="s">
+        <v>24</v>
+      </c>
+      <c r="I101">
+        <v>4</v>
+      </c>
+      <c r="J101" t="s">
+        <v>44</v>
+      </c>
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" t="b">
+        <v>1</v>
+      </c>
+      <c r="M101" t="b">
+        <v>1</v>
+      </c>
+      <c r="N101" t="b">
+        <v>0</v>
+      </c>
+      <c r="O101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>69</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="E102" s="1">
+        <v>45627</v>
+      </c>
+      <c r="F102" t="s">
+        <v>23</v>
+      </c>
+      <c r="G102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I102">
+        <v>5</v>
+      </c>
+      <c r="J102" t="s">
+        <v>44</v>
+      </c>
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
+      <c r="L102" t="b">
+        <v>1</v>
+      </c>
+      <c r="M102" t="b">
+        <v>1</v>
+      </c>
+      <c r="N102" t="b">
+        <v>0</v>
+      </c>
+      <c r="O102" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>70</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="C103">
+        <v>5</v>
+      </c>
+      <c r="E103" s="1">
+        <v>45627</v>
+      </c>
+      <c r="F103" t="s">
+        <v>23</v>
+      </c>
+      <c r="G103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I103">
+        <v>6</v>
+      </c>
+      <c r="J103" t="s">
+        <v>44</v>
+      </c>
+      <c r="K103" t="b">
+        <v>1</v>
+      </c>
+      <c r="L103" t="b">
+        <v>1</v>
+      </c>
+      <c r="M103" t="b">
+        <v>1</v>
+      </c>
+      <c r="N103" t="b">
+        <v>0</v>
+      </c>
+      <c r="O103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>71</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="E104" s="1">
+        <v>45627</v>
+      </c>
+      <c r="F104" t="s">
+        <v>23</v>
+      </c>
+      <c r="G104" t="s">
+        <v>24</v>
+      </c>
+      <c r="I104">
+        <v>7</v>
+      </c>
+      <c r="J104" t="s">
+        <v>44</v>
+      </c>
+      <c r="K104" t="b">
+        <v>1</v>
+      </c>
+      <c r="L104" t="b">
+        <v>1</v>
+      </c>
+      <c r="M104" t="b">
+        <v>1</v>
+      </c>
+      <c r="N104" t="b">
+        <v>0</v>
+      </c>
+      <c r="O104" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>72</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="E105" s="1">
+        <v>45627</v>
+      </c>
+      <c r="F105" t="s">
+        <v>23</v>
+      </c>
+      <c r="G105" t="s">
+        <v>24</v>
+      </c>
+      <c r="I105">
+        <v>8</v>
+      </c>
+      <c r="J105" t="s">
+        <v>44</v>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="b">
+        <v>1</v>
+      </c>
+      <c r="M105" t="b">
+        <v>1</v>
+      </c>
+      <c r="N105" t="b">
+        <v>0</v>
+      </c>
+      <c r="O105" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Golden R01 Behavior Master Key.xlsx
+++ b/Golden R01 Behavior Master Key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd Appleby\Documents\Fent\CoffeyBehavior\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DrCoffey\Documents\GitHub\CoffeyBehavior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0941EA-5B03-49CB-896D-B9C4ACAAEAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A425E4-9E37-4721-B8C4-3021CA5A3601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="75">
   <si>
     <t>TagNumber</t>
   </si>
@@ -329,13 +329,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,8 +355,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53C3D0ED-7493-433A-A73D-0447F5E34631}" name="Table1" displayName="Table1" ref="A1:X105" totalsRowShown="0">
-  <autoFilter ref="A1:X105" xr:uid="{53C3D0ED-7493-433A-A73D-0447F5E34631}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53C3D0ED-7493-433A-A73D-0447F5E34631}" name="Table1" displayName="Table1" ref="A1:X128" totalsRowShown="0">
+  <autoFilter ref="A1:X128" xr:uid="{53C3D0ED-7493-433A-A73D-0447F5E34631}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X36">
     <sortCondition descending="1" ref="J1:J49"/>
   </sortState>
@@ -652,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X105"/>
+  <dimension ref="A1:X128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q102" sqref="Q102"/>
+    <sheetView tabSelected="1" topLeftCell="K94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6305,6 +6306,949 @@
         <v>73</v>
       </c>
     </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>73</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
+      <c r="C106">
+        <v>6</v>
+      </c>
+      <c r="E106" s="6">
+        <v>45660</v>
+      </c>
+      <c r="F106" t="s">
+        <v>23</v>
+      </c>
+      <c r="G106" t="s">
+        <v>24</v>
+      </c>
+      <c r="I106">
+        <v>9</v>
+      </c>
+      <c r="J106" t="s">
+        <v>26</v>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="b">
+        <v>1</v>
+      </c>
+      <c r="M106" t="b">
+        <v>1</v>
+      </c>
+      <c r="N106" t="b">
+        <v>0</v>
+      </c>
+      <c r="O106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>74</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
+      <c r="C107">
+        <v>6</v>
+      </c>
+      <c r="E107" s="6">
+        <v>45660</v>
+      </c>
+      <c r="F107" t="s">
+        <v>23</v>
+      </c>
+      <c r="G107" t="s">
+        <v>24</v>
+      </c>
+      <c r="I107">
+        <v>10</v>
+      </c>
+      <c r="J107" t="s">
+        <v>26</v>
+      </c>
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+      <c r="L107" t="b">
+        <v>1</v>
+      </c>
+      <c r="M107" t="b">
+        <v>1</v>
+      </c>
+      <c r="N107" t="b">
+        <v>0</v>
+      </c>
+      <c r="O107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>75</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+      <c r="C108">
+        <v>6</v>
+      </c>
+      <c r="E108" s="6">
+        <v>45660</v>
+      </c>
+      <c r="F108" t="s">
+        <v>23</v>
+      </c>
+      <c r="G108" t="s">
+        <v>24</v>
+      </c>
+      <c r="I108">
+        <v>11</v>
+      </c>
+      <c r="J108" t="s">
+        <v>26</v>
+      </c>
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" t="b">
+        <v>1</v>
+      </c>
+      <c r="M108" t="b">
+        <v>1</v>
+      </c>
+      <c r="N108" t="b">
+        <v>0</v>
+      </c>
+      <c r="O108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>76</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+      <c r="C109">
+        <v>6</v>
+      </c>
+      <c r="E109" s="6">
+        <v>45660</v>
+      </c>
+      <c r="F109" t="s">
+        <v>23</v>
+      </c>
+      <c r="G109" t="s">
+        <v>24</v>
+      </c>
+      <c r="I109">
+        <v>12</v>
+      </c>
+      <c r="J109" t="s">
+        <v>26</v>
+      </c>
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+      <c r="L109" t="b">
+        <v>1</v>
+      </c>
+      <c r="M109" t="b">
+        <v>1</v>
+      </c>
+      <c r="N109" t="b">
+        <v>0</v>
+      </c>
+      <c r="O109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>77</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
+      </c>
+      <c r="C110">
+        <v>6</v>
+      </c>
+      <c r="E110" s="6">
+        <v>45660</v>
+      </c>
+      <c r="F110" t="s">
+        <v>23</v>
+      </c>
+      <c r="G110" t="s">
+        <v>24</v>
+      </c>
+      <c r="I110">
+        <v>13</v>
+      </c>
+      <c r="J110" t="s">
+        <v>26</v>
+      </c>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" t="b">
+        <v>1</v>
+      </c>
+      <c r="M110" t="b">
+        <v>1</v>
+      </c>
+      <c r="N110" t="b">
+        <v>0</v>
+      </c>
+      <c r="O110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>78</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
+      <c r="C111">
+        <v>6</v>
+      </c>
+      <c r="E111" s="6">
+        <v>45660</v>
+      </c>
+      <c r="F111" t="s">
+        <v>23</v>
+      </c>
+      <c r="G111" t="s">
+        <v>24</v>
+      </c>
+      <c r="I111">
+        <v>14</v>
+      </c>
+      <c r="J111" t="s">
+        <v>26</v>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="b">
+        <v>1</v>
+      </c>
+      <c r="M111" t="b">
+        <v>1</v>
+      </c>
+      <c r="N111" t="b">
+        <v>0</v>
+      </c>
+      <c r="O111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>79</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
+      <c r="C112">
+        <v>6</v>
+      </c>
+      <c r="E112" s="6">
+        <v>45660</v>
+      </c>
+      <c r="F112" t="s">
+        <v>32</v>
+      </c>
+      <c r="G112" t="s">
+        <v>24</v>
+      </c>
+      <c r="I112">
+        <v>15</v>
+      </c>
+      <c r="J112" t="s">
+        <v>26</v>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="b">
+        <v>1</v>
+      </c>
+      <c r="M112" t="b">
+        <v>1</v>
+      </c>
+      <c r="N112" t="b">
+        <v>0</v>
+      </c>
+      <c r="O112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>80</v>
+      </c>
+      <c r="B113">
+        <v>112</v>
+      </c>
+      <c r="C113">
+        <v>6</v>
+      </c>
+      <c r="E113" s="6">
+        <v>45660</v>
+      </c>
+      <c r="F113" t="s">
+        <v>32</v>
+      </c>
+      <c r="G113" t="s">
+        <v>24</v>
+      </c>
+      <c r="I113">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>26</v>
+      </c>
+      <c r="K113" t="b">
+        <v>1</v>
+      </c>
+      <c r="L113" t="b">
+        <v>1</v>
+      </c>
+      <c r="M113" t="b">
+        <v>1</v>
+      </c>
+      <c r="N113" t="b">
+        <v>0</v>
+      </c>
+      <c r="O113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>81</v>
+      </c>
+      <c r="B114">
+        <v>113</v>
+      </c>
+      <c r="C114">
+        <v>6</v>
+      </c>
+      <c r="E114" s="6">
+        <v>45660</v>
+      </c>
+      <c r="F114" t="s">
+        <v>32</v>
+      </c>
+      <c r="G114" t="s">
+        <v>24</v>
+      </c>
+      <c r="I114">
+        <v>17</v>
+      </c>
+      <c r="J114" t="s">
+        <v>26</v>
+      </c>
+      <c r="K114" t="b">
+        <v>1</v>
+      </c>
+      <c r="L114" t="b">
+        <v>1</v>
+      </c>
+      <c r="M114" t="b">
+        <v>1</v>
+      </c>
+      <c r="N114" t="b">
+        <v>0</v>
+      </c>
+      <c r="O114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>82</v>
+      </c>
+      <c r="B115">
+        <v>114</v>
+      </c>
+      <c r="C115">
+        <v>6</v>
+      </c>
+      <c r="E115" s="6">
+        <v>45660</v>
+      </c>
+      <c r="F115" t="s">
+        <v>32</v>
+      </c>
+      <c r="G115" t="s">
+        <v>24</v>
+      </c>
+      <c r="I115">
+        <v>18</v>
+      </c>
+      <c r="J115" t="s">
+        <v>26</v>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="b">
+        <v>1</v>
+      </c>
+      <c r="M115" t="b">
+        <v>1</v>
+      </c>
+      <c r="N115" t="b">
+        <v>0</v>
+      </c>
+      <c r="O115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>83</v>
+      </c>
+      <c r="B116">
+        <v>115</v>
+      </c>
+      <c r="C116">
+        <v>6</v>
+      </c>
+      <c r="E116" s="6">
+        <v>45660</v>
+      </c>
+      <c r="F116" t="s">
+        <v>32</v>
+      </c>
+      <c r="G116" t="s">
+        <v>24</v>
+      </c>
+      <c r="I116">
+        <v>19</v>
+      </c>
+      <c r="J116" t="s">
+        <v>26</v>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="b">
+        <v>1</v>
+      </c>
+      <c r="M116" t="b">
+        <v>1</v>
+      </c>
+      <c r="N116" t="b">
+        <v>0</v>
+      </c>
+      <c r="O116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>84</v>
+      </c>
+      <c r="B117">
+        <v>116</v>
+      </c>
+      <c r="C117">
+        <v>6</v>
+      </c>
+      <c r="E117" s="6">
+        <v>45660</v>
+      </c>
+      <c r="F117" t="s">
+        <v>32</v>
+      </c>
+      <c r="G117" t="s">
+        <v>24</v>
+      </c>
+      <c r="I117">
+        <v>20</v>
+      </c>
+      <c r="J117" t="s">
+        <v>44</v>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="b">
+        <v>1</v>
+      </c>
+      <c r="M117" t="b">
+        <v>1</v>
+      </c>
+      <c r="N117" t="b">
+        <v>0</v>
+      </c>
+      <c r="O117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>85</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
+      <c r="C118">
+        <v>6</v>
+      </c>
+      <c r="E118" s="6">
+        <v>45660</v>
+      </c>
+      <c r="F118" t="s">
+        <v>23</v>
+      </c>
+      <c r="G118" t="s">
+        <v>24</v>
+      </c>
+      <c r="I118">
+        <v>9</v>
+      </c>
+      <c r="J118" t="s">
+        <v>44</v>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="b">
+        <v>1</v>
+      </c>
+      <c r="M118" t="b">
+        <v>1</v>
+      </c>
+      <c r="N118" t="b">
+        <v>0</v>
+      </c>
+      <c r="O118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>86</v>
+      </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
+      <c r="C119">
+        <v>6</v>
+      </c>
+      <c r="E119" s="6">
+        <v>45660</v>
+      </c>
+      <c r="F119" t="s">
+        <v>23</v>
+      </c>
+      <c r="G119" t="s">
+        <v>24</v>
+      </c>
+      <c r="I119">
+        <v>10</v>
+      </c>
+      <c r="J119" t="s">
+        <v>44</v>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="b">
+        <v>1</v>
+      </c>
+      <c r="M119" t="b">
+        <v>1</v>
+      </c>
+      <c r="N119" t="b">
+        <v>0</v>
+      </c>
+      <c r="O119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>87</v>
+      </c>
+      <c r="B120">
+        <v>119</v>
+      </c>
+      <c r="C120">
+        <v>6</v>
+      </c>
+      <c r="E120" s="6">
+        <v>45660</v>
+      </c>
+      <c r="F120" t="s">
+        <v>23</v>
+      </c>
+      <c r="G120" t="s">
+        <v>24</v>
+      </c>
+      <c r="I120">
+        <v>11</v>
+      </c>
+      <c r="J120" t="s">
+        <v>44</v>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="b">
+        <v>1</v>
+      </c>
+      <c r="M120" t="b">
+        <v>1</v>
+      </c>
+      <c r="N120" t="b">
+        <v>0</v>
+      </c>
+      <c r="O120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>88</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
+      <c r="C121">
+        <v>6</v>
+      </c>
+      <c r="E121" s="6">
+        <v>45660</v>
+      </c>
+      <c r="F121" t="s">
+        <v>23</v>
+      </c>
+      <c r="G121" t="s">
+        <v>24</v>
+      </c>
+      <c r="I121">
+        <v>12</v>
+      </c>
+      <c r="J121" t="s">
+        <v>44</v>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="b">
+        <v>1</v>
+      </c>
+      <c r="M121" t="b">
+        <v>1</v>
+      </c>
+      <c r="N121" t="b">
+        <v>0</v>
+      </c>
+      <c r="O121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>89</v>
+      </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
+      <c r="C122">
+        <v>6</v>
+      </c>
+      <c r="E122" s="6">
+        <v>45660</v>
+      </c>
+      <c r="F122" t="s">
+        <v>23</v>
+      </c>
+      <c r="G122" t="s">
+        <v>24</v>
+      </c>
+      <c r="I122">
+        <v>13</v>
+      </c>
+      <c r="J122" t="s">
+        <v>44</v>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="b">
+        <v>1</v>
+      </c>
+      <c r="M122" t="b">
+        <v>1</v>
+      </c>
+      <c r="N122" t="b">
+        <v>0</v>
+      </c>
+      <c r="O122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>90</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+      <c r="C123">
+        <v>6</v>
+      </c>
+      <c r="E123" s="6">
+        <v>45660</v>
+      </c>
+      <c r="F123" t="s">
+        <v>32</v>
+      </c>
+      <c r="G123" t="s">
+        <v>24</v>
+      </c>
+      <c r="I123">
+        <v>15</v>
+      </c>
+      <c r="J123" t="s">
+        <v>44</v>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="b">
+        <v>1</v>
+      </c>
+      <c r="M123" t="b">
+        <v>1</v>
+      </c>
+      <c r="N123" t="b">
+        <v>0</v>
+      </c>
+      <c r="O123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>91</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
+      <c r="C124">
+        <v>6</v>
+      </c>
+      <c r="E124" s="6">
+        <v>45660</v>
+      </c>
+      <c r="F124" t="s">
+        <v>32</v>
+      </c>
+      <c r="G124" t="s">
+        <v>24</v>
+      </c>
+      <c r="I124">
+        <v>16</v>
+      </c>
+      <c r="J124" t="s">
+        <v>44</v>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="b">
+        <v>1</v>
+      </c>
+      <c r="M124" t="b">
+        <v>1</v>
+      </c>
+      <c r="N124" t="b">
+        <v>0</v>
+      </c>
+      <c r="O124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>92</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
+      <c r="C125">
+        <v>6</v>
+      </c>
+      <c r="E125" s="6">
+        <v>45660</v>
+      </c>
+      <c r="F125" t="s">
+        <v>32</v>
+      </c>
+      <c r="G125" t="s">
+        <v>24</v>
+      </c>
+      <c r="I125">
+        <v>17</v>
+      </c>
+      <c r="J125" t="s">
+        <v>44</v>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="b">
+        <v>1</v>
+      </c>
+      <c r="M125" t="b">
+        <v>1</v>
+      </c>
+      <c r="N125" t="b">
+        <v>0</v>
+      </c>
+      <c r="O125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>93</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
+      <c r="C126">
+        <v>6</v>
+      </c>
+      <c r="E126" s="6">
+        <v>45660</v>
+      </c>
+      <c r="F126" t="s">
+        <v>32</v>
+      </c>
+      <c r="G126" t="s">
+        <v>24</v>
+      </c>
+      <c r="I126">
+        <v>18</v>
+      </c>
+      <c r="J126" t="s">
+        <v>44</v>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="b">
+        <v>1</v>
+      </c>
+      <c r="M126" t="b">
+        <v>1</v>
+      </c>
+      <c r="N126" t="b">
+        <v>0</v>
+      </c>
+      <c r="O126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>94</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
+      <c r="C127">
+        <v>6</v>
+      </c>
+      <c r="E127" s="6">
+        <v>45660</v>
+      </c>
+      <c r="F127" t="s">
+        <v>32</v>
+      </c>
+      <c r="G127" t="s">
+        <v>24</v>
+      </c>
+      <c r="I127">
+        <v>19</v>
+      </c>
+      <c r="J127" t="s">
+        <v>44</v>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="b">
+        <v>1</v>
+      </c>
+      <c r="M127" t="b">
+        <v>1</v>
+      </c>
+      <c r="N127" t="b">
+        <v>0</v>
+      </c>
+      <c r="O127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>95</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
+      <c r="C128">
+        <v>6</v>
+      </c>
+      <c r="E128" s="6">
+        <v>45660</v>
+      </c>
+      <c r="F128" t="s">
+        <v>32</v>
+      </c>
+      <c r="G128" t="s">
+        <v>24</v>
+      </c>
+      <c r="I128">
+        <v>20</v>
+      </c>
+      <c r="J128" t="s">
+        <v>44</v>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="b">
+        <v>1</v>
+      </c>
+      <c r="M128" t="b">
+        <v>1</v>
+      </c>
+      <c r="N128" t="b">
+        <v>0</v>
+      </c>
+      <c r="O128" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Golden R01 Behavior Master Key.xlsx
+++ b/Golden R01 Behavior Master Key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DrCoffey\Documents\GitHub\CoffeyBehavior\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd Appleby\Documents\Fent\CoffeyBehavior_MouseEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A425E4-9E37-4721-B8C4-3021CA5A3601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6053B508-875B-4BB3-8335-A8A0FCB9C41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="103">
   <si>
     <t>TagNumber</t>
   </si>
@@ -254,20 +254,104 @@
     <t>BrainStorage</t>
   </si>
   <si>
-    <t>{6}</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>{6, 7}</t>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>{2}</t>
+  </si>
+  <si>
+    <t>old mouse (15 weeks); no video pretraining day 1</t>
+  </si>
+  <si>
+    <t>old mouse (11 weeks); no video pretraining day 1</t>
+  </si>
+  <si>
+    <t>{5, 6, 7}</t>
+  </si>
+  <si>
+    <t>{5, 6}</t>
+  </si>
+  <si>
+    <t>{5}</t>
+  </si>
+  <si>
+    <t>manual lever pressing on session 5 &amp; 6 as indicated in RemoveSessions column.  Session 7 used sugar-water baiting on the cue light as indicated in RemoveSessions column</t>
+  </si>
+  <si>
+    <t>old mouse (15 weeks); no video pretraining day 1; Data mixup on day 2</t>
+  </si>
+  <si>
+    <t>old mouse (11 weeks); no video pretraining day 1; Data mixup on day 2</t>
+  </si>
+  <si>
+    <t>C00358134</t>
+  </si>
+  <si>
+    <t>C00358112</t>
+  </si>
+  <si>
+    <t>C00358114</t>
+  </si>
+  <si>
+    <t>C00358115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manual lever pressing on session 5 &amp; 6 as indicated in RemoveSessions column.  Session 7 used sugar-water baiting on the cue light as indicated in RemoveSessions column.  </t>
+  </si>
+  <si>
+    <t>manual lever pressing on session 5 &amp; 6 as indicated in RemoveSessions column.  Session 7 used sugar-water baiting on the cue light as indicated in RemoveSessions column.  Self admin macro ran on session 23 (extinction session), so third extinction week added</t>
+  </si>
+  <si>
+    <t>manual lever pressing on session 5 &amp; 6 as indicated in RemoveSessions column.  Session 7 used sugar-water baiting on the cue light as indicated in RemoveSessions column.   Self admin macro ran on session 23 (extinction session), so third extinction week added</t>
+  </si>
+  <si>
+    <t>manual lever pressing on session 5 &amp; 6 as indicated in RemoveSessions column.  Session 7 used sugar-water baiting on the cue light as indicated in RemoveSessions column.  escaped box on session 20 &amp; 21.   Self admin macro ran on session 23 (extinction session), so third extinction week added</t>
+  </si>
+  <si>
+    <t>manual lever pressing on session 5 &amp; 6 as indicated in RemoveSessions column.  Session 7 used sugar-water baiting on the cue light as indicated in RemoveSessions column.  escaped box on session 21.   Self admin macro ran on session 23 (extinction session), so third extinction week added</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +368,12 @@
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -329,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -337,6 +427,11 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,8 +450,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53C3D0ED-7493-433A-A73D-0447F5E34631}" name="Table1" displayName="Table1" ref="A1:X128" totalsRowShown="0">
-  <autoFilter ref="A1:X128" xr:uid="{53C3D0ED-7493-433A-A73D-0447F5E34631}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53C3D0ED-7493-433A-A73D-0447F5E34631}" name="Table1" displayName="Table1" ref="A1:X140" totalsRowShown="0">
+  <autoFilter ref="A1:X140" xr:uid="{53C3D0ED-7493-433A-A73D-0447F5E34631}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X36">
     <sortCondition descending="1" ref="J1:J49"/>
   </sortState>
@@ -653,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X128"/>
+  <dimension ref="A1:X140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O99" sqref="O99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5194,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>48</v>
       </c>
@@ -5241,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>49</v>
       </c>
@@ -5288,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>50</v>
       </c>
@@ -5335,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>51</v>
       </c>
@@ -5382,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>52</v>
       </c>
@@ -5429,7 +5524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>53</v>
       </c>
@@ -5476,7 +5571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>54</v>
       </c>
@@ -5523,7 +5618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>55</v>
       </c>
@@ -5570,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>56</v>
       </c>
@@ -5617,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>57</v>
       </c>
@@ -5658,10 +5753,13 @@
         <v>0</v>
       </c>
       <c r="Q90" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="X90" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>58</v>
       </c>
@@ -5702,10 +5800,13 @@
         <v>0</v>
       </c>
       <c r="Q91" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="X91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>59</v>
       </c>
@@ -5746,10 +5847,13 @@
         <v>0</v>
       </c>
       <c r="Q92" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="X92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>60</v>
       </c>
@@ -5790,10 +5894,13 @@
         <v>0</v>
       </c>
       <c r="Q93" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="X93" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>61</v>
       </c>
@@ -5834,10 +5941,13 @@
         <v>0</v>
       </c>
       <c r="Q94" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="X94" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>62</v>
       </c>
@@ -5878,10 +5988,13 @@
         <v>0</v>
       </c>
       <c r="Q95" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="X95" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>63</v>
       </c>
@@ -5922,10 +6035,13 @@
         <v>0</v>
       </c>
       <c r="Q96" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="X96" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>64</v>
       </c>
@@ -5965,8 +6081,14 @@
       <c r="O97" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q97" t="s">
+        <v>90</v>
+      </c>
+      <c r="X97" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>65</v>
       </c>
@@ -6007,10 +6129,13 @@
         <v>0</v>
       </c>
       <c r="Q98" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="X98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>66</v>
       </c>
@@ -6050,8 +6175,14 @@
       <c r="O99" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q99" t="s">
+        <v>90</v>
+      </c>
+      <c r="X99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>67</v>
       </c>
@@ -6091,8 +6222,14 @@
       <c r="O100" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q100" t="s">
+        <v>90</v>
+      </c>
+      <c r="X100" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>68</v>
       </c>
@@ -6132,8 +6269,14 @@
       <c r="O101" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q101" t="s">
+        <v>90</v>
+      </c>
+      <c r="X101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>69</v>
       </c>
@@ -6174,10 +6317,13 @@
         <v>0</v>
       </c>
       <c r="Q102" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="X102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>70</v>
       </c>
@@ -6217,8 +6363,14 @@
       <c r="O103" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q103" t="s">
+        <v>90</v>
+      </c>
+      <c r="X103" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>71</v>
       </c>
@@ -6259,10 +6411,13 @@
         <v>0</v>
       </c>
       <c r="Q104" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="X104" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>72</v>
       </c>
@@ -6303,10 +6458,13 @@
         <v>0</v>
       </c>
       <c r="Q105" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="X105" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>73</v>
       </c>
@@ -6347,7 +6505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>74</v>
       </c>
@@ -6388,7 +6546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>75</v>
       </c>
@@ -6429,7 +6587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>76</v>
       </c>
@@ -6470,7 +6628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>77</v>
       </c>
@@ -6511,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>78</v>
       </c>
@@ -6552,7 +6710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>79</v>
       </c>
@@ -7249,11 +7407,582 @@
         <v>0</v>
       </c>
     </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
+      <c r="C129">
+        <v>7</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E129" s="8">
+        <v>45688</v>
+      </c>
+      <c r="F129" t="s">
+        <v>23</v>
+      </c>
+      <c r="G129" t="s">
+        <v>24</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129" t="s">
+        <v>26</v>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="b">
+        <v>0</v>
+      </c>
+      <c r="M129" t="b">
+        <v>0</v>
+      </c>
+      <c r="N129" t="b">
+        <v>0</v>
+      </c>
+      <c r="O129" t="b">
+        <v>0</v>
+      </c>
+      <c r="X129" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B130">
+        <v>129</v>
+      </c>
+      <c r="C130">
+        <v>7</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E130" s="8">
+        <v>45688</v>
+      </c>
+      <c r="F130" t="s">
+        <v>23</v>
+      </c>
+      <c r="G130" t="s">
+        <v>24</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130" t="s">
+        <v>26</v>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="b">
+        <v>0</v>
+      </c>
+      <c r="M130" t="b">
+        <v>0</v>
+      </c>
+      <c r="N130" t="b">
+        <v>0</v>
+      </c>
+      <c r="O130" t="b">
+        <v>0</v>
+      </c>
+      <c r="X130" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+      <c r="C131">
+        <v>7</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E131" s="8">
+        <v>45688</v>
+      </c>
+      <c r="F131" t="s">
+        <v>23</v>
+      </c>
+      <c r="G131" t="s">
+        <v>24</v>
+      </c>
+      <c r="I131">
+        <v>7</v>
+      </c>
+      <c r="J131" t="s">
+        <v>26</v>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="b">
+        <v>0</v>
+      </c>
+      <c r="M131" t="b">
+        <v>0</v>
+      </c>
+      <c r="N131" t="b">
+        <v>0</v>
+      </c>
+      <c r="O131" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>85</v>
+      </c>
+      <c r="X131" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B132">
+        <v>131</v>
+      </c>
+      <c r="C132">
+        <v>7</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E132" s="8">
+        <v>45713</v>
+      </c>
+      <c r="F132" t="s">
+        <v>32</v>
+      </c>
+      <c r="G132" t="s">
+        <v>24</v>
+      </c>
+      <c r="I132">
+        <v>4</v>
+      </c>
+      <c r="J132" t="s">
+        <v>26</v>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="b">
+        <v>0</v>
+      </c>
+      <c r="M132" t="b">
+        <v>0</v>
+      </c>
+      <c r="N132" t="b">
+        <v>0</v>
+      </c>
+      <c r="O132" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>85</v>
+      </c>
+      <c r="X132" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A133" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B133">
+        <v>132</v>
+      </c>
+      <c r="C133">
+        <v>7</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E133" s="8">
+        <v>45713</v>
+      </c>
+      <c r="F133" t="s">
+        <v>32</v>
+      </c>
+      <c r="G133" t="s">
+        <v>24</v>
+      </c>
+      <c r="I133">
+        <v>5</v>
+      </c>
+      <c r="J133" t="s">
+        <v>26</v>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="b">
+        <v>0</v>
+      </c>
+      <c r="M133" t="b">
+        <v>0</v>
+      </c>
+      <c r="N133" t="b">
+        <v>0</v>
+      </c>
+      <c r="O133" t="b">
+        <v>0</v>
+      </c>
+      <c r="X133" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
+      <c r="C134">
+        <v>7</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E134" s="8">
+        <v>45713</v>
+      </c>
+      <c r="F134" t="s">
+        <v>32</v>
+      </c>
+      <c r="G134" t="s">
+        <v>24</v>
+      </c>
+      <c r="I134">
+        <v>6</v>
+      </c>
+      <c r="J134" t="s">
+        <v>26</v>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="b">
+        <v>0</v>
+      </c>
+      <c r="M134" t="b">
+        <v>0</v>
+      </c>
+      <c r="N134" t="b">
+        <v>0</v>
+      </c>
+      <c r="O134" t="b">
+        <v>0</v>
+      </c>
+      <c r="X134" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B135">
+        <v>134</v>
+      </c>
+      <c r="C135">
+        <v>7</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E135" s="8">
+        <v>45713</v>
+      </c>
+      <c r="F135" t="s">
+        <v>23</v>
+      </c>
+      <c r="G135" t="s">
+        <v>24</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135" t="s">
+        <v>44</v>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="b">
+        <v>0</v>
+      </c>
+      <c r="M135" t="b">
+        <v>0</v>
+      </c>
+      <c r="N135" t="b">
+        <v>0</v>
+      </c>
+      <c r="O135" t="b">
+        <v>0</v>
+      </c>
+      <c r="X135" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B136">
+        <v>135</v>
+      </c>
+      <c r="C136">
+        <v>7</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E136" s="8">
+        <v>45713</v>
+      </c>
+      <c r="F136" t="s">
+        <v>23</v>
+      </c>
+      <c r="G136" t="s">
+        <v>24</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136" t="s">
+        <v>44</v>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="b">
+        <v>0</v>
+      </c>
+      <c r="M136" t="b">
+        <v>0</v>
+      </c>
+      <c r="N136" t="b">
+        <v>0</v>
+      </c>
+      <c r="O136" t="b">
+        <v>0</v>
+      </c>
+      <c r="X136" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A137" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
+      </c>
+      <c r="C137">
+        <v>7</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E137" s="8">
+        <v>45713</v>
+      </c>
+      <c r="F137" t="s">
+        <v>23</v>
+      </c>
+      <c r="G137" t="s">
+        <v>24</v>
+      </c>
+      <c r="I137">
+        <v>7</v>
+      </c>
+      <c r="J137" t="s">
+        <v>44</v>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="b">
+        <v>0</v>
+      </c>
+      <c r="M137" t="b">
+        <v>0</v>
+      </c>
+      <c r="N137" t="b">
+        <v>0</v>
+      </c>
+      <c r="O137" t="b">
+        <v>0</v>
+      </c>
+      <c r="X137" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A138" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B138">
+        <v>137</v>
+      </c>
+      <c r="C138">
+        <v>7</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E138" s="8">
+        <v>45713</v>
+      </c>
+      <c r="F138" t="s">
+        <v>32</v>
+      </c>
+      <c r="G138" t="s">
+        <v>24</v>
+      </c>
+      <c r="I138">
+        <v>4</v>
+      </c>
+      <c r="J138" t="s">
+        <v>44</v>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="b">
+        <v>0</v>
+      </c>
+      <c r="M138" t="b">
+        <v>0</v>
+      </c>
+      <c r="N138" t="b">
+        <v>0</v>
+      </c>
+      <c r="O138" t="b">
+        <v>0</v>
+      </c>
+      <c r="X138" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
+      <c r="C139">
+        <v>7</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E139" s="8">
+        <v>45713</v>
+      </c>
+      <c r="F139" t="s">
+        <v>32</v>
+      </c>
+      <c r="G139" t="s">
+        <v>24</v>
+      </c>
+      <c r="I139">
+        <v>5</v>
+      </c>
+      <c r="J139" t="s">
+        <v>44</v>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="b">
+        <v>0</v>
+      </c>
+      <c r="M139" t="b">
+        <v>0</v>
+      </c>
+      <c r="N139" t="b">
+        <v>0</v>
+      </c>
+      <c r="O139" t="b">
+        <v>0</v>
+      </c>
+      <c r="X139" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A140" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B140">
+        <v>139</v>
+      </c>
+      <c r="C140">
+        <v>7</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E140" s="8">
+        <v>45713</v>
+      </c>
+      <c r="F140" t="s">
+        <v>32</v>
+      </c>
+      <c r="G140" t="s">
+        <v>24</v>
+      </c>
+      <c r="I140">
+        <v>6</v>
+      </c>
+      <c r="J140" t="s">
+        <v>44</v>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="b">
+        <v>0</v>
+      </c>
+      <c r="M140" t="b">
+        <v>0</v>
+      </c>
+      <c r="N140" t="b">
+        <v>0</v>
+      </c>
+      <c r="O140" t="b">
+        <v>0</v>
+      </c>
+      <c r="X140" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="2400" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>